--- a/Downstream_R_Code/Extra_Analysis/Sample_Type_Full_Statistical_Analysis/Pvalues-Sample_Type.xlsx
+++ b/Downstream_R_Code/Extra_Analysis/Sample_Type_Full_Statistical_Analysis/Pvalues-Sample_Type.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\jogembo\Seq\170118\Paper_Draft_BMC_Genomics_from_PLOS_Pathogens_Draft19\HPV_type_paper-archived_samples\Downstream_R_Code\Extra_Analysis\Sample_Type_Full_Statistical_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\jogembo\Seq\170118\Paper_Draft_BMC_Genomics_from_PLOS_Pathogens_Draft20\HPV_type_paper-archived_samples\Downstream_R_Code\Extra_Analysis\Sample_Type_Full_Statistical_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153F01E0-587B-4CA6-8142-30BDB71EB179}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0119D2A-546A-4645-8B87-00421DD8C2A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="2310" windowWidth="24735" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="2505" windowWidth="24735" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supplemental_Table_S9" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
   <si>
     <t>HPV.type</t>
   </si>
@@ -40,12 +40,6 @@
     <t>min5.FE.fdr</t>
   </si>
   <si>
-    <t>min15.detection.diff</t>
-  </si>
-  <si>
-    <t>min15.FE.pvalue</t>
-  </si>
-  <si>
     <t>min15.FE.fdr</t>
   </si>
   <si>
@@ -121,10 +115,13 @@
     <t>Frozen_vs_DNA</t>
   </si>
   <si>
-    <t>Archive Type / Batch P-Value Calculations (HPV+ Tumor)</t>
-  </si>
-  <si>
     <t>Archive Type / Batch P-Value Calculations (Among HPV+ Tumors)</t>
+  </si>
+  <si>
+    <t>min20.detection.diff</t>
+  </si>
+  <si>
+    <t>min20.FE.pvalue</t>
   </si>
 </sst>
 </file>
@@ -331,13 +328,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFCA06CA"/>
+      <color rgb="FFFF00FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,12 +523,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,7 +702,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -730,17 +721,15 @@
     <xf numFmtId="10" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="14" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -790,6 +779,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF00FF"/>
       <color rgb="FFCA06CA"/>
       <color rgb="FFFF99CC"/>
       <color rgb="FFC50BAA"/>
@@ -1073,7 +1063,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,7 +1092,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1122,57 +1112,57 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="M2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="N2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="O2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="P2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="Q2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="R2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="S2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="T2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="12">
         <v>-0.11700000000000001</v>
@@ -1183,14 +1173,14 @@
       <c r="E3" s="11">
         <v>0.79204753670774697</v>
       </c>
-      <c r="F3" s="23">
-        <v>-0.17100000000000001</v>
-      </c>
-      <c r="G3" s="24">
-        <v>0.20946517123354899</v>
-      </c>
-      <c r="H3" s="24">
-        <v>0.67158931082981699</v>
+      <c r="F3" s="21">
+        <v>-0.22500000000000001</v>
+      </c>
+      <c r="G3" s="22">
+        <v>7.6210367315101099E-2</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0.59262510974539095</v>
       </c>
       <c r="I3" s="11">
         <v>0.28699394749443802</v>
@@ -1207,13 +1197,13 @@
       <c r="M3" s="11">
         <v>7.7691526350883002E-3</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="24">
         <v>6.9922373715794697E-2</v>
       </c>
       <c r="O3" s="11">
         <v>1.1706339795657E-2</v>
       </c>
-      <c r="P3" s="22">
+      <c r="P3" s="24">
         <v>0.10535705816091299</v>
       </c>
       <c r="Q3" s="11">
@@ -1231,10 +1221,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="12">
         <v>6.4000000000000001E-2</v>
@@ -1245,14 +1235,14 @@
       <c r="E4" s="11">
         <v>0.85609036797412696</v>
       </c>
-      <c r="F4" s="23">
-        <v>6.0000000000000097E-3</v>
-      </c>
-      <c r="G4" s="24">
-        <v>1</v>
-      </c>
-      <c r="H4" s="24">
-        <v>1</v>
+      <c r="F4" s="21">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0.82038955944544301</v>
+      </c>
+      <c r="H4" s="22">
+        <v>0.92293825437612298</v>
       </c>
       <c r="I4" s="11">
         <v>0.87154224385550105</v>
@@ -1275,7 +1265,7 @@
       <c r="O4" s="11">
         <v>3.1751338962538803E-2</v>
       </c>
-      <c r="P4" s="22">
+      <c r="P4" s="24">
         <v>0.14288102533142499</v>
       </c>
       <c r="Q4" s="11">
@@ -1293,10 +1283,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="12">
         <v>-0.14899999999999999</v>
@@ -1307,13 +1297,13 @@
       <c r="E5" s="11">
         <v>0.68697205768233405</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="21">
         <v>-0.17699999999999999</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="22">
         <v>0.18052191536819601</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="22">
         <v>0.74540917043124699</v>
       </c>
       <c r="I5" s="11">
@@ -1355,10 +1345,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="12">
         <v>0.19700000000000001</v>
@@ -1369,19 +1359,19 @@
       <c r="E6" s="11">
         <v>0.50847417056359001</v>
       </c>
-      <c r="F6" s="23">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="G6" s="24">
-        <v>0.56373404247431402</v>
-      </c>
-      <c r="H6" s="24">
-        <v>0.84560106371147103</v>
+      <c r="F6" s="21">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0.54526861195958598</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0.70105964394803899</v>
       </c>
       <c r="I6" s="13">
         <v>3.6754541865060601E-5</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="19">
         <v>5.5131812797590901E-5</v>
       </c>
       <c r="K6" s="11">
@@ -1405,22 +1395,22 @@
       <c r="Q6" s="11">
         <v>5.4458122397699302E-2</v>
       </c>
-      <c r="R6" s="22">
+      <c r="R6" s="24">
         <v>0.245061550789647</v>
       </c>
       <c r="S6" s="11">
         <v>5.1461945595504197E-2</v>
       </c>
-      <c r="T6" s="21">
+      <c r="T6" s="24">
         <v>0.231578755179769</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="12">
         <v>0.14599999999999999</v>
@@ -1431,19 +1421,19 @@
       <c r="E7" s="11">
         <v>0.76070940680835797</v>
       </c>
-      <c r="F7" s="25">
-        <v>0.01</v>
-      </c>
-      <c r="G7" s="24">
-        <v>1</v>
-      </c>
-      <c r="H7" s="24">
-        <v>1</v>
+      <c r="F7" s="21">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0.79577024733436097</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0.92293825437612298</v>
       </c>
       <c r="I7" s="11">
         <v>5.2673046912913302E-3</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="20">
         <v>6.7722488888031403E-3</v>
       </c>
       <c r="K7" s="11">
@@ -1479,10 +1469,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="12">
         <v>6.2E-2</v>
@@ -1493,13 +1483,13 @@
       <c r="E8" s="11">
         <v>0.74540917043124699</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="21">
         <v>6.2E-2</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="22">
         <v>0.74540917043124699</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="22">
         <v>0.74540917043124699</v>
       </c>
       <c r="I8" s="11">
@@ -1541,10 +1531,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="12">
         <v>5.3999999999999999E-2</v>
@@ -1555,19 +1545,19 @@
       <c r="E9" s="11">
         <v>0.82313642756680705</v>
       </c>
-      <c r="F9" s="23">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="G9" s="24">
-        <v>0.54875761837787196</v>
-      </c>
-      <c r="H9" s="24">
-        <v>0.84560106371147103</v>
+      <c r="F9" s="21">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G9" s="22">
+        <v>0.52809482001756003</v>
+      </c>
+      <c r="H9" s="22">
+        <v>0.70105964394803899</v>
       </c>
       <c r="I9" s="13">
         <v>6.3014243506675797E-6</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="19">
         <v>1.4178204789002E-5</v>
       </c>
       <c r="K9" s="11">
@@ -1603,10 +1593,10 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="12">
         <v>5.3999999999999999E-2</v>
@@ -1617,19 +1607,19 @@
       <c r="E10" s="11">
         <v>0.76973232669869596</v>
       </c>
-      <c r="F10" s="23">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="G10" s="24">
-        <v>0.27759197324414697</v>
-      </c>
-      <c r="H10" s="24">
-        <v>1</v>
+      <c r="F10" s="21">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G10" s="22">
+        <v>0.49756572541382699</v>
+      </c>
+      <c r="H10" s="22">
+        <v>0.92293825437612298</v>
       </c>
       <c r="I10" s="13">
         <v>3.95934149396471E-13</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="19">
         <v>1.1878024481894099E-12</v>
       </c>
       <c r="K10" s="11">
@@ -1665,10 +1655,10 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="12">
         <v>3.5999999999999997E-2</v>
@@ -1679,19 +1669,19 @@
       <c r="E11" s="11">
         <v>1</v>
       </c>
-      <c r="F11" s="23">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G11" s="24">
-        <v>1</v>
-      </c>
-      <c r="H11" s="24">
-        <v>1</v>
+      <c r="F11" s="21">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G11" s="22">
+        <v>0.52809482001756003</v>
+      </c>
+      <c r="H11" s="22">
+        <v>0.70105964394803899</v>
       </c>
       <c r="I11" s="13">
         <v>3.3032124258146298E-5</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="19">
         <v>5.5131812797590901E-5</v>
       </c>
       <c r="K11" s="11">
@@ -1727,10 +1717,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="12">
         <v>3.5999999999999997E-2</v>
@@ -1741,19 +1731,19 @@
       <c r="E12" s="11">
         <v>0.76973232669869596</v>
       </c>
-      <c r="F12" s="23">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G12" s="24">
-        <v>0.51839464882943198</v>
-      </c>
-      <c r="H12" s="24">
-        <v>1</v>
+      <c r="F12" s="21">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G12" s="22">
+        <v>0.49756572541382699</v>
+      </c>
+      <c r="H12" s="22">
+        <v>0.92293825437612298</v>
       </c>
       <c r="I12" s="13">
         <v>6.14996822588022E-16</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="19">
         <v>5.5349714032922004E-15</v>
       </c>
       <c r="K12" s="11">
@@ -1789,10 +1779,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="12">
         <v>7.0999999999999994E-2</v>
@@ -1803,19 +1793,19 @@
       <c r="E13" s="11">
         <v>0.68800714053878598</v>
       </c>
-      <c r="F13" s="23">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="G13" s="24">
-        <v>0.30578095135057198</v>
-      </c>
-      <c r="H13" s="24">
-        <v>0.68800714053878598</v>
+      <c r="F13" s="21">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="G13" s="22">
+        <v>0.28851219018031998</v>
+      </c>
+      <c r="H13" s="22">
+        <v>0.70105964394803899</v>
       </c>
       <c r="I13" s="11">
         <v>7.8839889679683704E-4</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="20">
         <v>1.01365572445308E-3</v>
       </c>
       <c r="K13" s="11">
@@ -1851,10 +1841,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="12">
         <v>1.7999999999999999E-2</v>
@@ -1865,19 +1855,19 @@
       <c r="E14" s="11">
         <v>1</v>
       </c>
-      <c r="F14" s="23">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G14" s="24">
-        <v>1</v>
-      </c>
-      <c r="H14" s="24">
-        <v>1</v>
+      <c r="F14" s="21">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G14" s="22">
+        <v>0.68299795348429604</v>
+      </c>
+      <c r="H14" s="22">
+        <v>0.92293825437612298</v>
       </c>
       <c r="I14" s="11">
         <v>6.55093437668733E-4</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="20">
         <v>1.0701397391340501E-3</v>
       </c>
       <c r="K14" s="11">
@@ -1913,10 +1903,10 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="12">
         <v>5.6000000000000001E-2</v>
@@ -1927,13 +1917,13 @@
       <c r="E15" s="11">
         <v>0.70297304806890804</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="21">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="22">
         <v>0.50819672131147597</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="22">
         <v>0.74540917043124699</v>
       </c>
       <c r="I15" s="11">
@@ -1974,11 +1964,11 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>26</v>
+      <c r="A16" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="15">
         <v>0.35299999999999998</v>
@@ -1989,58 +1979,58 @@
       <c r="E16" s="17">
         <v>9.0240959484967596E-3</v>
       </c>
-      <c r="F16" s="26">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="G16" s="27">
-        <v>8.5097916419518208E-3</v>
-      </c>
-      <c r="H16" s="28">
-        <v>7.6588124777566394E-2</v>
+      <c r="F16" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="G16" s="14">
+        <v>1</v>
+      </c>
+      <c r="H16" s="14">
+        <v>1</v>
       </c>
       <c r="I16" s="16">
         <v>5.3687420465758603E-24</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="18">
         <v>4.8318678419182799E-23</v>
       </c>
       <c r="K16" s="14">
         <v>9.4233305259776908E-3</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="26">
         <v>8.4809974733799198E-2</v>
       </c>
       <c r="M16" s="14">
         <v>3.17391214276663E-2</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="26">
         <v>0.142826046424499</v>
       </c>
       <c r="O16" s="14">
         <v>4.4516705592534199E-2</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P16" s="26">
         <v>0.15622477682420299</v>
       </c>
       <c r="Q16" s="16">
         <v>3.1787994980997699E-6</v>
       </c>
-      <c r="R16" s="19">
+      <c r="R16" s="18">
         <v>2.8609195482897901E-5</v>
       </c>
       <c r="S16" s="16">
         <v>3.86164894948137E-7</v>
       </c>
-      <c r="T16" s="19">
+      <c r="T16" s="18">
         <v>3.4754840545332398E-6</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>26</v>
+      <c r="A17" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="15">
         <v>0.23499999999999999</v>
@@ -2048,28 +2038,28 @@
       <c r="D17" s="14">
         <v>2.08833523580578E-2</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="26">
         <v>0.187950171222521</v>
       </c>
-      <c r="F17" s="26">
-        <v>0.193</v>
-      </c>
-      <c r="G17" s="27">
-        <v>4.1783061368712501E-2</v>
-      </c>
-      <c r="H17" s="27">
-        <v>0.37604755231841203</v>
+      <c r="F17" s="15">
+        <v>-4.1000000000000002E-2</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0.69602543484795498</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0.92293825437612298</v>
       </c>
       <c r="I17" s="16">
         <v>3.1984933883371702E-15</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="18">
         <v>1.4393220247517299E-14</v>
       </c>
       <c r="K17" s="14">
         <v>1.7710869472051E-2</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="26">
         <v>0.159397825248459</v>
       </c>
       <c r="M17" s="14">
@@ -2087,22 +2077,22 @@
       <c r="Q17" s="14">
         <v>1.7331403845034399E-2</v>
       </c>
-      <c r="R17" s="18">
+      <c r="R17" s="26">
         <v>0.15598263460531001</v>
       </c>
       <c r="S17" s="16">
         <v>1.56481011591671E-9</v>
       </c>
-      <c r="T17" s="19">
+      <c r="T17" s="18">
         <v>1.40832910432504E-8</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>26</v>
+      <c r="A18" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="15">
         <v>0.127</v>
@@ -2113,13 +2103,13 @@
       <c r="E18" s="14">
         <v>0.68697205768233405</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="15">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="14">
         <v>0.63994838251601405</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="14">
         <v>0.74540917043124699</v>
       </c>
       <c r="I18" s="14">
@@ -2149,7 +2139,7 @@
       <c r="Q18" s="14">
         <v>2.95857998047027E-2</v>
       </c>
-      <c r="R18" s="18">
+      <c r="R18" s="26">
         <v>0.147928999023514</v>
       </c>
       <c r="S18" s="14">
@@ -2161,10 +2151,10 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="12">
         <v>-6.2E-2</v>
@@ -2176,18 +2166,18 @@
         <v>0.67158931082981699</v>
       </c>
       <c r="F19" s="23">
-        <v>-6.2E-2</v>
-      </c>
-      <c r="G19" s="24">
-        <v>0.223863103609939</v>
-      </c>
-      <c r="H19" s="24">
-        <v>0.67158931082981699</v>
+        <v>-0.08</v>
+      </c>
+      <c r="G19" s="22">
+        <v>0.13169446883230901</v>
+      </c>
+      <c r="H19" s="22">
+        <v>0.59262510974539095</v>
       </c>
       <c r="I19" s="13">
         <v>2.3411431236588801E-8</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="19">
         <v>1.0535144056465E-7</v>
       </c>
       <c r="K19" s="11">
@@ -2199,13 +2189,13 @@
       <c r="M19" s="11">
         <v>6.5062631427763598E-2</v>
       </c>
-      <c r="N19" s="22">
+      <c r="N19" s="24">
         <v>0.195187894283291</v>
       </c>
       <c r="O19" s="11">
         <v>5.2074925608067701E-2</v>
       </c>
-      <c r="P19" s="22">
+      <c r="P19" s="24">
         <v>0.15622477682420299</v>
       </c>
       <c r="Q19" s="11">
@@ -2223,10 +2213,10 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="12">
         <v>-8.0000000000000002E-3</v>
@@ -2237,14 +2227,14 @@
       <c r="E20" s="11">
         <v>1</v>
       </c>
-      <c r="F20" s="25">
-        <v>-0.01</v>
-      </c>
-      <c r="G20" s="24">
-        <v>1</v>
-      </c>
-      <c r="H20" s="24">
-        <v>1</v>
+      <c r="F20" s="21">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="G20" s="22">
+        <v>0.455696202531646</v>
+      </c>
+      <c r="H20" s="22">
+        <v>0.92293825437612298</v>
       </c>
       <c r="I20" s="11">
         <v>0.83348395410356402</v>
@@ -2285,10 +2275,10 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21" s="12">
         <v>-5.1999999999999998E-2</v>
@@ -2299,19 +2289,19 @@
       <c r="E21" s="11">
         <v>0.70297304806890804</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="21">
         <v>-5.1999999999999998E-2</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="22">
         <v>0.56237843845512703</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="22">
         <v>0.74540917043124699</v>
       </c>
       <c r="I21" s="13">
         <v>1.48077880540887E-5</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J21" s="19">
         <v>7.4038940270443305E-5</v>
       </c>
       <c r="K21" s="11">
@@ -2347,10 +2337,10 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="12">
         <v>3.5999999999999997E-2</v>
@@ -2361,19 +2351,19 @@
       <c r="E22" s="11">
         <v>1</v>
       </c>
-      <c r="F22" s="23">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G22" s="24">
+      <c r="F22" s="21">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G22" s="22">
         <v>1</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="22">
         <v>1</v>
       </c>
       <c r="I22" s="13">
         <v>8.1574160868461801E-7</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J22" s="19">
         <v>2.4472248260538498E-6</v>
       </c>
       <c r="K22" s="11">
@@ -2409,10 +2399,10 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="C23" s="12">
         <v>3.5999999999999997E-2</v>
@@ -2423,19 +2413,19 @@
       <c r="E23" s="11">
         <v>0.76973232669869596</v>
       </c>
-      <c r="F23" s="23">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G23" s="24">
+      <c r="F23" s="21">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G23" s="22">
         <v>1</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="22">
         <v>1</v>
       </c>
       <c r="I23" s="13">
         <v>9.4172192441432193E-9</v>
       </c>
-      <c r="J23" s="20">
+      <c r="J23" s="19">
         <v>2.11887432993222E-8</v>
       </c>
       <c r="K23" s="11">
@@ -2471,10 +2461,10 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" s="12">
         <v>3.5999999999999997E-2</v>
@@ -2485,19 +2475,19 @@
       <c r="E24" s="11">
         <v>1</v>
       </c>
-      <c r="F24" s="23">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G24" s="24">
-        <v>1</v>
-      </c>
-      <c r="H24" s="24">
-        <v>1</v>
+      <c r="F24" s="21">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G24" s="22">
+        <v>0.52809482001756003</v>
+      </c>
+      <c r="H24" s="22">
+        <v>0.70105964394803899</v>
       </c>
       <c r="I24" s="11">
         <v>8.2622255753722201E-3</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="20">
         <v>9.2950037722937494E-3</v>
       </c>
       <c r="K24" s="11">
@@ -2533,10 +2523,10 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="12">
         <v>3.5999999999999997E-2</v>
@@ -2547,19 +2537,19 @@
       <c r="E25" s="11">
         <v>0.76973232669869596</v>
       </c>
-      <c r="F25" s="23">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G25" s="24">
-        <v>0.51839464882943198</v>
-      </c>
-      <c r="H25" s="24">
-        <v>1</v>
+      <c r="F25" s="21">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G25" s="22">
+        <v>0.49756572541382699</v>
+      </c>
+      <c r="H25" s="22">
+        <v>0.92293825437612298</v>
       </c>
       <c r="I25" s="11">
         <v>7.1342649275603397E-4</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="20">
         <v>1.0701397391340501E-3</v>
       </c>
       <c r="K25" s="11">

--- a/Downstream_R_Code/Extra_Analysis/Sample_Type_Full_Statistical_Analysis/Pvalues-Sample_Type.xlsx
+++ b/Downstream_R_Code/Extra_Analysis/Sample_Type_Full_Statistical_Analysis/Pvalues-Sample_Type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\jogembo\Seq\170118\Paper_Draft_BMC_Genomics_from_PLOS_Pathogens_Draft20\HPV_type_paper-archived_samples\Downstream_R_Code\Extra_Analysis\Sample_Type_Full_Statistical_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\jogembo\Seq\170118\Paper_Draft_PLOS_ONE_Draft24\HPV_type_paper-archived_samples\Downstream_R_Code\Extra_Analysis\Sample_Type_Full_Statistical_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0119D2A-546A-4645-8B87-00421DD8C2A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E423DA-3181-4F98-8B52-6567CCA021F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="2505" windowWidth="24735" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="1125" windowWidth="27165" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supplemental_Table_S9" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +329,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF00FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -702,7 +708,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -730,6 +736,8 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1063,7 +1071,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,58 +1173,58 @@
         <v>19</v>
       </c>
       <c r="C3" s="12">
-        <v>-0.11700000000000001</v>
+        <v>-0.124</v>
       </c>
       <c r="D3" s="11">
-        <v>0.44002640928208198</v>
+        <v>0.31398765885406199</v>
       </c>
       <c r="E3" s="11">
-        <v>0.79204753670774697</v>
+        <v>0.56517778593731205</v>
       </c>
       <c r="F3" s="21">
-        <v>-0.22500000000000001</v>
+        <v>-0.23599999999999999</v>
       </c>
       <c r="G3" s="22">
-        <v>7.6210367315101099E-2</v>
+        <v>7.1786171106636404E-2</v>
       </c>
       <c r="H3" s="22">
-        <v>0.59262510974539095</v>
+        <v>0.61058344640434303</v>
       </c>
       <c r="I3" s="11">
-        <v>0.28699394749443802</v>
+        <v>0.29575030995745899</v>
       </c>
       <c r="J3" s="11">
-        <v>0.28699394749443802</v>
+        <v>0.29575030995745899</v>
       </c>
       <c r="K3" s="11">
-        <v>0.30000984953423099</v>
+        <v>0.27719284804190902</v>
       </c>
       <c r="L3" s="11">
-        <v>0.67502216145201999</v>
+        <v>0.62368390809429497</v>
       </c>
       <c r="M3" s="11">
-        <v>7.7691526350883002E-3</v>
+        <v>5.8762490063055802E-3</v>
       </c>
       <c r="N3" s="24">
-        <v>6.9922373715794697E-2</v>
+        <v>5.2886241056750202E-2</v>
       </c>
       <c r="O3" s="11">
-        <v>1.1706339795657E-2</v>
+        <v>9.0849772879080196E-3</v>
       </c>
       <c r="P3" s="24">
-        <v>0.10535705816091299</v>
+        <v>8.1764795591172196E-2</v>
       </c>
       <c r="Q3" s="11">
-        <v>0.114772755528082</v>
+        <v>0.10286270505407</v>
       </c>
       <c r="R3" s="11">
-        <v>0.26600829076389698</v>
+        <v>0.25997669716397198</v>
       </c>
       <c r="S3" s="11">
-        <v>0.13135253800771499</v>
-      </c>
-      <c r="T3" s="11">
-        <v>0.25877299320533398</v>
+        <v>0.11768231590317201</v>
+      </c>
+      <c r="T3" s="28">
+        <v>0.24964880761156999</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1227,58 +1235,58 @@
         <v>28</v>
       </c>
       <c r="C4" s="12">
-        <v>6.4000000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D4" s="11">
-        <v>0.66584806397987595</v>
+        <v>0.82786720713779005</v>
       </c>
       <c r="E4" s="11">
-        <v>0.85609036797412696</v>
+        <v>1</v>
       </c>
       <c r="F4" s="21">
-        <v>-4.8000000000000001E-2</v>
+        <v>-5.8999999999999997E-2</v>
       </c>
       <c r="G4" s="22">
-        <v>0.82038955944544301</v>
+        <v>0.65237193304929997</v>
       </c>
       <c r="H4" s="22">
-        <v>0.92293825437612298</v>
+        <v>0.89283707912820298</v>
       </c>
       <c r="I4" s="11">
-        <v>0.87154224385550105</v>
+        <v>0.95099360492321605</v>
       </c>
       <c r="J4" s="11">
-        <v>0.87154224385550105</v>
+        <v>0.95241046530406004</v>
       </c>
       <c r="K4" s="11">
-        <v>0.53200344341724803</v>
+        <v>0.80765535267380195</v>
       </c>
       <c r="L4" s="11">
-        <v>0.99520918276598602</v>
+        <v>0.99533191253442199</v>
       </c>
       <c r="M4" s="11">
-        <v>0.287845277410755</v>
+        <v>0.175160559291374</v>
       </c>
       <c r="N4" s="11">
-        <v>0.47060682764627598</v>
+        <v>0.45923682415744899</v>
       </c>
       <c r="O4" s="11">
-        <v>3.1751338962538803E-2</v>
+        <v>2.7904885491914701E-2</v>
       </c>
       <c r="P4" s="24">
-        <v>0.14288102533142499</v>
+        <v>0.125571984713616</v>
       </c>
       <c r="Q4" s="11">
-        <v>0.60852675042822102</v>
+        <v>0.52623558862503295</v>
       </c>
       <c r="R4" s="11">
-        <v>0.74295932404141696</v>
+        <v>0.67658861394647196</v>
       </c>
       <c r="S4" s="11">
-        <v>0.44221557903313702</v>
+        <v>0.400533160867172</v>
       </c>
       <c r="T4" s="11">
-        <v>0.56856288732831906</v>
+        <v>0.51497120682922004</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1307,40 +1315,40 @@
         <v>0.74540917043124699</v>
       </c>
       <c r="I5" s="11">
-        <v>0.345547108340022</v>
+        <v>0.383017794377635</v>
       </c>
       <c r="J5" s="11">
-        <v>0.57591184723337097</v>
+        <v>0.383017794377635</v>
       </c>
       <c r="K5" s="11">
-        <v>0.226859914337947</v>
+        <v>0.226859914337946</v>
       </c>
       <c r="L5" s="11">
-        <v>0.56714978584486697</v>
+        <v>0.56714978584486497</v>
       </c>
       <c r="M5" s="11">
-        <v>0.173174711808885</v>
+        <v>0.17361527059098</v>
       </c>
       <c r="N5" s="11">
-        <v>0.54880849344000604</v>
+        <v>0.54442911405706396</v>
       </c>
       <c r="O5" s="11">
-        <v>0.44295050950559001</v>
+        <v>0.44246893919159802</v>
       </c>
       <c r="P5" s="11">
-        <v>0.55368813688198704</v>
+        <v>0.553086173989497</v>
       </c>
       <c r="Q5" s="11">
-        <v>0.33422836904931302</v>
+        <v>0.34685102765876502</v>
       </c>
       <c r="R5" s="11">
-        <v>0.40341961180091401</v>
+        <v>0.40709589184667599</v>
       </c>
       <c r="S5" s="11">
-        <v>0.42877736047835802</v>
+        <v>0.44156270094200201</v>
       </c>
       <c r="T5" s="11">
-        <v>0.42877736047835802</v>
+        <v>0.44156270094200201</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1351,58 +1359,58 @@
         <v>19</v>
       </c>
       <c r="C6" s="12">
-        <v>0.19700000000000001</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="D6" s="11">
-        <v>0.112994260125242</v>
+        <v>7.2866548466251305E-2</v>
       </c>
       <c r="E6" s="11">
-        <v>0.50847417056359001</v>
+        <v>0.32789946809813098</v>
       </c>
       <c r="F6" s="21">
-        <v>9.6000000000000002E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="G6" s="22">
-        <v>0.54526861195958598</v>
+        <v>0.38145131706859198</v>
       </c>
       <c r="H6" s="22">
-        <v>0.70105964394803899</v>
+        <v>0.675130839309944</v>
       </c>
       <c r="I6" s="13">
-        <v>3.6754541865060601E-5</v>
+        <v>9.6391950302328493E-6</v>
       </c>
       <c r="J6" s="19">
-        <v>5.5131812797590901E-5</v>
+        <v>1.4458792545349299E-5</v>
       </c>
       <c r="K6" s="11">
-        <v>8.0620100286348403E-2</v>
+        <v>7.3263536241712099E-2</v>
       </c>
       <c r="L6" s="11">
-        <v>0.36279045128856802</v>
+        <v>0.32968591308770501</v>
       </c>
       <c r="M6" s="11">
-        <v>0.59392154054369695</v>
+        <v>0.570398325581845</v>
       </c>
       <c r="N6" s="11">
-        <v>0.59392154054369695</v>
+        <v>0.570398325581845</v>
       </c>
       <c r="O6" s="11">
-        <v>0.489851652839699</v>
+        <v>0.46343278758866902</v>
       </c>
       <c r="P6" s="11">
-        <v>0.489851652839699</v>
+        <v>0.46343278758866902</v>
       </c>
       <c r="Q6" s="11">
-        <v>5.4458122397699302E-2</v>
+        <v>4.9994896354199E-2</v>
       </c>
       <c r="R6" s="24">
-        <v>0.245061550789647</v>
+        <v>0.22497703359389601</v>
       </c>
       <c r="S6" s="11">
-        <v>5.1461945595504197E-2</v>
-      </c>
-      <c r="T6" s="24">
-        <v>0.231578755179769</v>
+        <v>4.6871124242906299E-2</v>
+      </c>
+      <c r="T6" s="28">
+        <v>0.21092005909307801</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1413,58 +1421,58 @@
         <v>28</v>
       </c>
       <c r="C7" s="12">
-        <v>0.14599999999999999</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="D7" s="11">
-        <v>0.169046534846302</v>
+        <v>0.171518065616791</v>
       </c>
       <c r="E7" s="11">
-        <v>0.76070940680835797</v>
-      </c>
-      <c r="F7" s="21">
-        <v>3.4000000000000002E-2</v>
+        <v>0.77183129527555805</v>
+      </c>
+      <c r="F7" s="23">
+        <v>0.04</v>
       </c>
       <c r="G7" s="22">
-        <v>0.79577024733436097</v>
+        <v>0.79363295922507004</v>
       </c>
       <c r="H7" s="22">
-        <v>0.92293825437612298</v>
+        <v>0.89283707912820298</v>
       </c>
       <c r="I7" s="11">
-        <v>5.2673046912913302E-3</v>
+        <v>4.3442232208805703E-3</v>
       </c>
       <c r="J7" s="20">
-        <v>6.7722488888031403E-3</v>
+        <v>6.5163348313208597E-3</v>
       </c>
       <c r="K7" s="11">
-        <v>0.130916764439415</v>
+        <v>0.15648539407119899</v>
       </c>
       <c r="L7" s="11">
-        <v>0.58912543997736899</v>
+        <v>0.70418427332039701</v>
       </c>
       <c r="M7" s="11">
-        <v>0.95969580826693002</v>
+        <v>0.93740812058513001</v>
       </c>
       <c r="N7" s="11">
-        <v>0.96159255682564704</v>
+        <v>0.99564373199807699</v>
       </c>
       <c r="O7" s="11">
-        <v>0.55729605353656098</v>
+        <v>0.60407234441261304</v>
       </c>
       <c r="P7" s="11">
-        <v>0.62695806022863099</v>
+        <v>0.67958138746418995</v>
       </c>
       <c r="Q7" s="11">
-        <v>0.33131231715505199</v>
+        <v>0.260939908273704</v>
       </c>
       <c r="R7" s="11">
-        <v>0.49696847573257802</v>
+        <v>0.39140986241055598</v>
       </c>
       <c r="S7" s="11">
-        <v>0.39969520590702401</v>
+        <v>0.35763248365295602</v>
       </c>
       <c r="T7" s="11">
-        <v>0.56856288732831906</v>
+        <v>0.51497120682922004</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1493,10 +1501,10 @@
         <v>0.74540917043124699</v>
       </c>
       <c r="I8" s="11">
-        <v>0.48598325968714701</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0.60747907460893402</v>
+        <v>0.196361203624183</v>
+      </c>
+      <c r="J8" s="24">
+        <v>0.24545150453022899</v>
       </c>
       <c r="K8" s="11">
         <v>0.54923171061339304</v>
@@ -1505,28 +1513,28 @@
         <v>0.68653963826674103</v>
       </c>
       <c r="M8" s="11">
-        <v>0.57873746128347203</v>
+        <v>0.57875242841430896</v>
       </c>
       <c r="N8" s="11">
-        <v>0.57873746128347203</v>
+        <v>0.57875242841430896</v>
       </c>
       <c r="O8" s="11">
-        <v>0.368184567418057</v>
+        <v>0.36809310817779201</v>
       </c>
       <c r="P8" s="11">
-        <v>0.55368813688198704</v>
+        <v>0.553086173989497</v>
       </c>
       <c r="Q8" s="11">
-        <v>0.40341961180091401</v>
+        <v>0.40709589184667599</v>
       </c>
       <c r="R8" s="11">
-        <v>0.40341961180091401</v>
+        <v>0.40709589184667599</v>
       </c>
       <c r="S8" s="11">
-        <v>0.32299697275618</v>
+        <v>0.32321075443680503</v>
       </c>
       <c r="T8" s="11">
-        <v>0.40374621594522497</v>
+        <v>0.404013443046006</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1537,58 +1545,58 @@
         <v>19</v>
       </c>
       <c r="C9" s="12">
-        <v>5.3999999999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D9" s="11">
-        <v>0.54875761837787196</v>
+        <v>0.54813777994157797</v>
       </c>
       <c r="E9" s="11">
-        <v>0.82313642756680705</v>
+        <v>0.82220666991236702</v>
       </c>
       <c r="F9" s="21">
-        <v>4.7E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="G9" s="22">
-        <v>0.52809482001756003</v>
+        <v>0.525101763907734</v>
       </c>
       <c r="H9" s="22">
-        <v>0.70105964394803899</v>
+        <v>0.675130839309944</v>
       </c>
       <c r="I9" s="13">
-        <v>6.3014243506675797E-6</v>
+        <v>1.64047919051382E-8</v>
       </c>
       <c r="J9" s="19">
-        <v>1.4178204789002E-5</v>
+        <v>4.9214375715414698E-8</v>
       </c>
       <c r="K9" s="11">
-        <v>0.99601868968485696</v>
+        <v>0.99601440379676398</v>
       </c>
       <c r="L9" s="11">
-        <v>0.99611412607392802</v>
+        <v>0.99610992029565604</v>
       </c>
       <c r="M9" s="11">
-        <v>0.29345161603311498</v>
+        <v>0.28905297461275098</v>
       </c>
       <c r="N9" s="11">
-        <v>0.46932032924510603</v>
+        <v>0.46367700807421403</v>
       </c>
       <c r="O9" s="11">
-        <v>0.35176951290810199</v>
+        <v>0.34797200325627398</v>
       </c>
       <c r="P9" s="11">
-        <v>0.489851652839699</v>
+        <v>0.46343278758866902</v>
       </c>
       <c r="Q9" s="11">
-        <v>0.17733886050926501</v>
+        <v>0.173317798109315</v>
       </c>
       <c r="R9" s="11">
-        <v>0.26600829076389698</v>
+        <v>0.25997669716397198</v>
       </c>
       <c r="S9" s="11">
-        <v>0.23810312768141501</v>
+        <v>0.23524346217176101</v>
       </c>
       <c r="T9" s="11">
-        <v>0.35715469152212298</v>
+        <v>0.35286519325764198</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1599,58 +1607,58 @@
         <v>28</v>
       </c>
       <c r="C10" s="12">
-        <v>5.3999999999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D10" s="11">
-        <v>0.26973232669869601</v>
+        <v>0.27472527472527503</v>
       </c>
       <c r="E10" s="11">
-        <v>0.76973232669869596</v>
+        <v>0.77472527472527497</v>
       </c>
       <c r="F10" s="21">
-        <v>4.7E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="G10" s="22">
-        <v>0.49756572541382699</v>
+        <v>0.49650349650349601</v>
       </c>
       <c r="H10" s="22">
-        <v>0.92293825437612298</v>
+        <v>0.89283707912820298</v>
       </c>
       <c r="I10" s="13">
-        <v>3.95934149396471E-13</v>
+        <v>1.64582859091115E-10</v>
       </c>
       <c r="J10" s="19">
-        <v>1.1878024481894099E-12</v>
+        <v>4.9374857727334403E-10</v>
       </c>
       <c r="K10" s="11">
-        <v>0.99509152161439496</v>
+        <v>0.99521729333709397</v>
       </c>
       <c r="L10" s="11">
-        <v>0.99520918276598602</v>
+        <v>0.99533191253442199</v>
       </c>
       <c r="M10" s="11">
-        <v>0.19473974177307901</v>
+        <v>0.20284190785544801</v>
       </c>
       <c r="N10" s="11">
-        <v>0.47060682764627598</v>
+        <v>0.45923682415744899</v>
       </c>
       <c r="O10" s="11">
-        <v>0.16648796223891599</v>
+        <v>0.17255131641632501</v>
       </c>
       <c r="P10" s="11">
-        <v>0.41034663325572701</v>
+        <v>0.42933106303739899</v>
       </c>
       <c r="Q10" s="11">
-        <v>9.6142631879153895E-2</v>
+        <v>0.102143511849423</v>
       </c>
       <c r="R10" s="11">
-        <v>0.432641843456192</v>
+        <v>0.39140986241055598</v>
       </c>
       <c r="S10" s="11">
-        <v>6.7959478913361293E-2</v>
+        <v>7.2093416810804903E-2</v>
       </c>
       <c r="T10" s="11">
-        <v>0.30581765511012599</v>
+        <v>0.32442037564862197</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1670,49 +1678,49 @@
         <v>1</v>
       </c>
       <c r="F11" s="21">
-        <v>4.7E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="G11" s="22">
-        <v>0.52809482001756003</v>
+        <v>0.525101763907734</v>
       </c>
       <c r="H11" s="22">
-        <v>0.70105964394803899</v>
+        <v>0.675130839309944</v>
       </c>
       <c r="I11" s="13">
-        <v>3.3032124258146298E-5</v>
+        <v>4.50667731734618E-6</v>
       </c>
       <c r="J11" s="19">
-        <v>5.5131812797590901E-5</v>
+        <v>1.01400239640289E-5</v>
       </c>
       <c r="K11" s="11">
-        <v>0.99611412607160399</v>
+        <v>0.99610992029565604</v>
       </c>
       <c r="L11" s="11">
-        <v>0.99611412607392802</v>
+        <v>0.99610992029565604</v>
       </c>
       <c r="M11" s="11">
-        <v>0.36502692274619303</v>
+        <v>0.36063767294661098</v>
       </c>
       <c r="N11" s="11">
-        <v>0.46932032924510603</v>
+        <v>0.46367700807421403</v>
       </c>
       <c r="O11" s="11">
-        <v>0.33184526590654601</v>
+        <v>0.32604703241597599</v>
       </c>
       <c r="P11" s="11">
-        <v>0.489851652839699</v>
+        <v>0.46343278758866902</v>
       </c>
       <c r="Q11" s="11">
-        <v>0.409403350456575</v>
+        <v>0.40683800322235603</v>
       </c>
       <c r="R11" s="11">
-        <v>0.409403350456575</v>
+        <v>0.40683800322235603</v>
       </c>
       <c r="S11" s="11">
-        <v>0.42206847764382399</v>
+        <v>0.41746140076433103</v>
       </c>
       <c r="T11" s="11">
-        <v>0.436605472989188</v>
+        <v>0.43415695203568799</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1726,55 +1734,55 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="D12" s="11">
-        <v>0.51315488446579705</v>
+        <v>0.51648351648351698</v>
       </c>
       <c r="E12" s="11">
-        <v>0.76973232669869596</v>
+        <v>0.77472527472527497</v>
       </c>
       <c r="F12" s="21">
-        <v>4.7E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="G12" s="22">
-        <v>0.49756572541382699</v>
+        <v>0.49650349650349601</v>
       </c>
       <c r="H12" s="22">
-        <v>0.92293825437612298</v>
+        <v>0.89283707912820298</v>
       </c>
       <c r="I12" s="13">
-        <v>6.14996822588022E-16</v>
+        <v>3.22393077759038E-11</v>
       </c>
       <c r="J12" s="19">
-        <v>5.5349714032922004E-15</v>
+        <v>1.4507688499156701E-10</v>
       </c>
       <c r="K12" s="11">
-        <v>0.99520918276598602</v>
+        <v>0.99533191253442199</v>
       </c>
       <c r="L12" s="11">
-        <v>0.99520918276598602</v>
+        <v>0.99533191253442199</v>
       </c>
       <c r="M12" s="11">
-        <v>0.24659126787730701</v>
+        <v>0.25542550725089902</v>
       </c>
       <c r="N12" s="11">
-        <v>0.47060682764627598</v>
+        <v>0.45923682415744899</v>
       </c>
       <c r="O12" s="11">
-        <v>0.31246856245626697</v>
+        <v>0.31040900176689101</v>
       </c>
       <c r="P12" s="11">
-        <v>0.56097049304204205</v>
+        <v>0.55873620318040396</v>
       </c>
       <c r="Q12" s="11">
-        <v>0.160217369946455</v>
+        <v>0.17092693245358201</v>
       </c>
       <c r="R12" s="11">
-        <v>0.43841778446304702</v>
+        <v>0.39140986241055598</v>
       </c>
       <c r="S12" s="11">
-        <v>0.182743967090294</v>
+        <v>0.188549333439745</v>
       </c>
       <c r="T12" s="11">
-        <v>0.32893914076253</v>
+        <v>0.34344414362923298</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1785,58 +1793,58 @@
         <v>19</v>
       </c>
       <c r="C13" s="12">
-        <v>7.0999999999999994E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="D13" s="11">
-        <v>0.30578095135057198</v>
+        <v>0.30362359159827501</v>
       </c>
       <c r="E13" s="11">
-        <v>0.68800714053878598</v>
+        <v>0.56517778593731205</v>
       </c>
       <c r="F13" s="21">
-        <v>9.2999999999999999E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G13" s="22">
-        <v>0.28851219018031998</v>
+        <v>0.28856591170023999</v>
       </c>
       <c r="H13" s="22">
-        <v>0.70105964394803899</v>
-      </c>
-      <c r="I13" s="11">
-        <v>7.8839889679683704E-4</v>
-      </c>
-      <c r="J13" s="20">
-        <v>1.01365572445308E-3</v>
+        <v>0.675130839309944</v>
+      </c>
+      <c r="I13" s="13">
+        <v>4.9591558017248901E-11</v>
+      </c>
+      <c r="J13" s="19">
+        <v>2.2316201107762E-10</v>
       </c>
       <c r="K13" s="11">
-        <v>0.99369315023395099</v>
+        <v>0.99368594691935697</v>
       </c>
       <c r="L13" s="11">
-        <v>0.99611412607392802</v>
+        <v>0.99610992029565604</v>
       </c>
       <c r="M13" s="11">
-        <v>0.20864618085529199</v>
+        <v>0.20450273699316099</v>
       </c>
       <c r="N13" s="11">
-        <v>0.46932032924510603</v>
+        <v>0.46013115823461298</v>
       </c>
       <c r="O13" s="11">
-        <v>0.176085790812297</v>
+        <v>0.171020173369623</v>
       </c>
       <c r="P13" s="11">
-        <v>0.39619302932766798</v>
+        <v>0.38479539008165198</v>
       </c>
       <c r="Q13" s="11">
-        <v>0.16897658990033501</v>
+        <v>0.16460425154731301</v>
       </c>
       <c r="R13" s="11">
-        <v>0.26600829076389698</v>
+        <v>0.25997669716397198</v>
       </c>
       <c r="S13" s="11">
-        <v>0.143762774002964</v>
-      </c>
-      <c r="T13" s="11">
-        <v>0.25877299320533398</v>
+        <v>0.13869378200642801</v>
+      </c>
+      <c r="T13" s="28">
+        <v>0.24964880761156999</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1847,7 +1855,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="12">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D14" s="11">
         <v>1</v>
@@ -1856,49 +1864,49 @@
         <v>1</v>
       </c>
       <c r="F14" s="21">
-        <v>3.6999999999999998E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="G14" s="22">
-        <v>0.68299795348429604</v>
+        <v>0.68087720070416502</v>
       </c>
       <c r="H14" s="22">
-        <v>0.92293825437612298</v>
+        <v>0.89283707912820298</v>
       </c>
       <c r="I14" s="11">
-        <v>6.55093437668733E-4</v>
+        <v>1.5710200143656599E-3</v>
       </c>
       <c r="J14" s="20">
-        <v>1.0701397391340501E-3</v>
+        <v>2.82783602585819E-3</v>
       </c>
       <c r="K14" s="11">
-        <v>0.71546696612185401</v>
+        <v>0.74757380462622902</v>
       </c>
       <c r="L14" s="11">
-        <v>0.99520918276598602</v>
+        <v>0.99533191253442199</v>
       </c>
       <c r="M14" s="11">
-        <v>0.96159255682564704</v>
+        <v>0.99564373199807699</v>
       </c>
       <c r="N14" s="11">
-        <v>0.96159255682564704</v>
+        <v>0.99564373199807699</v>
       </c>
       <c r="O14" s="11">
-        <v>0.82096607121228105</v>
+        <v>0.84231776496584598</v>
       </c>
       <c r="P14" s="11">
-        <v>0.82096607121228105</v>
+        <v>0.84231776496584598</v>
       </c>
       <c r="Q14" s="11">
-        <v>0.74295932404141696</v>
+        <v>0.76912841592855996</v>
       </c>
       <c r="R14" s="11">
-        <v>0.74295932404141696</v>
+        <v>0.76912841592855996</v>
       </c>
       <c r="S14" s="11">
-        <v>0.94592082988460702</v>
+        <v>0.92123088050096003</v>
       </c>
       <c r="T14" s="11">
-        <v>0.94592082988460702</v>
+        <v>0.92123088050096003</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1927,40 +1935,40 @@
         <v>0.74540917043124699</v>
       </c>
       <c r="I15" s="11">
-        <v>0.67266182694811705</v>
-      </c>
-      <c r="J15" s="11">
-        <v>0.67266182694811705</v>
+        <v>1.49893899041231E-2</v>
+      </c>
+      <c r="J15" s="20">
+        <v>2.4982316506871799E-2</v>
       </c>
       <c r="K15" s="11">
-        <v>0.996010034712279</v>
+        <v>0.99601003471202498</v>
       </c>
       <c r="L15" s="11">
-        <v>0.996010034712279</v>
+        <v>0.99601003471202498</v>
       </c>
       <c r="M15" s="11">
-        <v>0.238783568627042</v>
+        <v>0.23904237070015499</v>
       </c>
       <c r="N15" s="11">
-        <v>0.54880849344000604</v>
+        <v>0.54442911405706396</v>
       </c>
       <c r="O15" s="11">
-        <v>0.19802099235172499</v>
+        <v>0.19806759675598401</v>
       </c>
       <c r="P15" s="11">
-        <v>0.55368813688198704</v>
+        <v>0.553086173989497</v>
       </c>
       <c r="Q15" s="11">
-        <v>0.25402925500315199</v>
+        <v>0.25937014774434902</v>
       </c>
       <c r="R15" s="11">
-        <v>0.40341961180091401</v>
+        <v>0.40709589184667599</v>
       </c>
       <c r="S15" s="11">
-        <v>0.22066132629847801</v>
+        <v>0.222824895792645</v>
       </c>
       <c r="T15" s="11">
-        <v>0.40374621594522497</v>
+        <v>0.404013443046006</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -1970,17 +1978,17 @@
       <c r="B16" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="15">
-        <v>0.35299999999999998</v>
+      <c r="C16" s="25">
+        <v>0.36</v>
       </c>
       <c r="D16" s="14">
-        <v>1.0026773276107499E-3</v>
+        <v>9.8311350868995201E-4</v>
       </c>
       <c r="E16" s="17">
-        <v>9.0240959484967596E-3</v>
-      </c>
-      <c r="F16" s="25">
-        <v>0.03</v>
+        <v>8.8480215782095698E-3</v>
+      </c>
+      <c r="F16" s="15">
+        <v>3.1E-2</v>
       </c>
       <c r="G16" s="14">
         <v>1</v>
@@ -1989,40 +1997,40 @@
         <v>1</v>
       </c>
       <c r="I16" s="16">
-        <v>5.3687420465758603E-24</v>
+        <v>5.5688115712646696E-22</v>
       </c>
       <c r="J16" s="18">
-        <v>4.8318678419182799E-23</v>
+        <v>5.0119304141382E-21</v>
       </c>
       <c r="K16" s="14">
-        <v>9.4233305259776908E-3</v>
+        <v>8.7028040312553904E-3</v>
       </c>
       <c r="L16" s="26">
-        <v>8.4809974733799198E-2</v>
+        <v>7.8325236281298505E-2</v>
       </c>
       <c r="M16" s="14">
-        <v>3.17391214276663E-2</v>
+        <v>2.8999353674065299E-2</v>
       </c>
       <c r="N16" s="26">
-        <v>0.142826046424499</v>
+        <v>0.130497091533294</v>
       </c>
       <c r="O16" s="14">
-        <v>4.4516705592534199E-2</v>
+        <v>4.1850152226511401E-2</v>
       </c>
       <c r="P16" s="26">
-        <v>0.15622477682420299</v>
+        <v>0.16272240971127</v>
       </c>
       <c r="Q16" s="16">
-        <v>3.1787994980997699E-6</v>
+        <v>2.9746796177103698E-6</v>
       </c>
       <c r="R16" s="18">
-        <v>2.8609195482897901E-5</v>
+        <v>2.6772116559393299E-5</v>
       </c>
       <c r="S16" s="16">
-        <v>3.86164894948137E-7</v>
+        <v>3.9640810313032601E-7</v>
       </c>
       <c r="T16" s="18">
-        <v>3.4754840545332398E-6</v>
+        <v>3.5676729281729402E-6</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -2033,58 +2041,58 @@
         <v>28</v>
       </c>
       <c r="C17" s="15">
-        <v>0.23499999999999999</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="D17" s="14">
-        <v>2.08833523580578E-2</v>
+        <v>2.13148582528556E-2</v>
       </c>
       <c r="E17" s="26">
-        <v>0.187950171222521</v>
-      </c>
-      <c r="F17" s="15">
-        <v>-4.1000000000000002E-2</v>
+        <v>0.191833724275701</v>
+      </c>
+      <c r="F17" s="25">
+        <v>-0.04</v>
       </c>
       <c r="G17" s="14">
-        <v>0.69602543484795498</v>
+        <v>0.69749817983415696</v>
       </c>
       <c r="H17" s="14">
-        <v>0.92293825437612298</v>
+        <v>0.89283707912820298</v>
       </c>
       <c r="I17" s="16">
-        <v>3.1984933883371702E-15</v>
+        <v>3.2075046638346897E-14</v>
       </c>
       <c r="J17" s="18">
-        <v>1.4393220247517299E-14</v>
+        <v>2.8867541974512298E-13</v>
       </c>
       <c r="K17" s="14">
-        <v>1.7710869472051E-2</v>
+        <v>2.18635427282175E-2</v>
       </c>
       <c r="L17" s="26">
-        <v>0.159397825248459</v>
+        <v>0.196771884553957</v>
       </c>
       <c r="M17" s="14">
-        <v>0.113301506453622</v>
+        <v>6.2658338862923699E-2</v>
       </c>
       <c r="N17" s="14">
-        <v>0.47060682764627598</v>
+        <v>0.45923682415744899</v>
       </c>
       <c r="O17" s="16">
-        <v>6.5279155258339005E-5</v>
+        <v>6.6405803681375206E-5</v>
       </c>
       <c r="P17" s="17">
-        <v>5.87512397325051E-4</v>
+        <v>5.9765223313237696E-4</v>
       </c>
       <c r="Q17" s="14">
-        <v>1.7331403845034399E-2</v>
-      </c>
-      <c r="R17" s="26">
-        <v>0.15598263460531001</v>
+        <v>4.7923542742600803E-3</v>
+      </c>
+      <c r="R17" s="17">
+        <v>4.31311884683407E-2</v>
       </c>
       <c r="S17" s="16">
-        <v>1.56481011591671E-9</v>
+        <v>1.8252941527220399E-9</v>
       </c>
       <c r="T17" s="18">
-        <v>1.40832910432504E-8</v>
+        <v>1.64276473744983E-8</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -2113,40 +2121,40 @@
         <v>0.74540917043124699</v>
       </c>
       <c r="I18" s="14">
-        <v>1.0920986283952799E-3</v>
+        <v>2.3513673863234099E-4</v>
       </c>
       <c r="J18" s="17">
-        <v>2.7302465709882098E-3</v>
+        <v>1.1756836931617E-3</v>
       </c>
       <c r="K18" s="14">
-        <v>0.159123771666737</v>
+        <v>0.159123771666734</v>
       </c>
       <c r="L18" s="14">
-        <v>0.56714978584486697</v>
+        <v>0.56714978584486497</v>
       </c>
       <c r="M18" s="14">
-        <v>0.43904679475200398</v>
+        <v>0.435543291245651</v>
       </c>
       <c r="N18" s="14">
-        <v>0.54880849344000604</v>
+        <v>0.54442911405706396</v>
       </c>
       <c r="O18" s="14">
-        <v>0.59643988191392805</v>
+        <v>0.59710452611145703</v>
       </c>
       <c r="P18" s="14">
-        <v>0.59643988191392805</v>
+        <v>0.59710452611145703</v>
       </c>
       <c r="Q18" s="14">
-        <v>2.95857998047027E-2</v>
+        <v>2.95033326233816E-2</v>
       </c>
       <c r="R18" s="26">
-        <v>0.147928999023514</v>
+        <v>0.147516663116908</v>
       </c>
       <c r="S18" s="14">
-        <v>0.29007163640472</v>
+        <v>0.28992152935495702</v>
       </c>
       <c r="T18" s="14">
-        <v>0.40374621594522497</v>
+        <v>0.404013443046006</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -2160,55 +2168,55 @@
         <v>-6.2E-2</v>
       </c>
       <c r="D19" s="11">
-        <v>0.223863103609939</v>
+        <v>0.22882181110029201</v>
       </c>
       <c r="E19" s="11">
-        <v>0.67158931082981699</v>
+        <v>0.56517778593731205</v>
       </c>
       <c r="F19" s="23">
         <v>-0.08</v>
       </c>
       <c r="G19" s="22">
-        <v>0.13169446883230901</v>
+        <v>0.135685210312076</v>
       </c>
       <c r="H19" s="22">
-        <v>0.59262510974539095</v>
+        <v>0.61058344640434303</v>
       </c>
       <c r="I19" s="13">
-        <v>2.3411431236588801E-8</v>
+        <v>7.6681794478158805E-5</v>
       </c>
       <c r="J19" s="19">
-        <v>1.0535144056465E-7</v>
+        <v>9.8590878614775502E-5</v>
       </c>
       <c r="K19" s="11">
-        <v>0.210411721086468</v>
+        <v>0.21586287728370401</v>
       </c>
       <c r="L19" s="11">
-        <v>0.63123516325940499</v>
+        <v>0.62368390809429497</v>
       </c>
       <c r="M19" s="11">
-        <v>6.5062631427763598E-2</v>
+        <v>6.7907412841040501E-2</v>
       </c>
       <c r="N19" s="24">
-        <v>0.195187894283291</v>
+        <v>0.20372223852312199</v>
       </c>
       <c r="O19" s="11">
-        <v>5.2074925608067701E-2</v>
+        <v>5.4240803237090102E-2</v>
       </c>
       <c r="P19" s="24">
-        <v>0.15622477682420299</v>
+        <v>0.16272240971127</v>
       </c>
       <c r="Q19" s="11">
-        <v>0.154381974933884</v>
+        <v>0.16048396473420201</v>
       </c>
       <c r="R19" s="11">
-        <v>0.26600829076389698</v>
+        <v>0.25997669716397198</v>
       </c>
       <c r="S19" s="11">
-        <v>0.114760135495854</v>
-      </c>
-      <c r="T19" s="11">
-        <v>0.25877299320533398</v>
+        <v>0.119051540607283</v>
+      </c>
+      <c r="T19" s="28">
+        <v>0.24964880761156999</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -2218,8 +2226,8 @@
       <c r="B20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="12">
-        <v>-8.0000000000000002E-3</v>
+      <c r="C20" s="27">
+        <v>-0.01</v>
       </c>
       <c r="D20" s="11">
         <v>1</v>
@@ -2231,46 +2239,46 @@
         <v>-2.8000000000000001E-2</v>
       </c>
       <c r="G20" s="22">
-        <v>0.455696202531646</v>
+        <v>0.46153846153846201</v>
       </c>
       <c r="H20" s="22">
-        <v>0.92293825437612298</v>
+        <v>0.89283707912820298</v>
       </c>
       <c r="I20" s="11">
-        <v>0.83348395410356402</v>
+        <v>0.95241046530406004</v>
       </c>
       <c r="J20" s="11">
-        <v>0.87154224385550105</v>
+        <v>0.95241046530406004</v>
       </c>
       <c r="K20" s="11">
-        <v>0.78161747750671495</v>
+        <v>0.76181510024761701</v>
       </c>
       <c r="L20" s="11">
-        <v>0.99520918276598602</v>
+        <v>0.99533191253442199</v>
       </c>
       <c r="M20" s="11">
-        <v>0.36602753261377002</v>
+        <v>0.351990222162123</v>
       </c>
       <c r="N20" s="11">
-        <v>0.47060682764627598</v>
+        <v>0.45923682415744899</v>
       </c>
       <c r="O20" s="11">
-        <v>0.44619104779489699</v>
+        <v>0.442613659511706</v>
       </c>
       <c r="P20" s="11">
-        <v>0.57367420430772498</v>
+        <v>0.56907470508647895</v>
       </c>
       <c r="Q20" s="11">
-        <v>0.69425291564562297</v>
+        <v>0.67049995335061396</v>
       </c>
       <c r="R20" s="11">
-        <v>0.74295932404141696</v>
+        <v>0.75431244751944104</v>
       </c>
       <c r="S20" s="11">
-        <v>0.86065030655339603</v>
+        <v>0.84751632232887597</v>
       </c>
       <c r="T20" s="11">
-        <v>0.94592082988460702</v>
+        <v>0.92123088050096003</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -2298,41 +2306,41 @@
       <c r="H21" s="22">
         <v>0.74540917043124699</v>
       </c>
-      <c r="I21" s="13">
-        <v>1.48077880540887E-5</v>
-      </c>
-      <c r="J21" s="19">
-        <v>7.4038940270443305E-5</v>
+      <c r="I21" s="11">
+        <v>1.72857356423195E-3</v>
+      </c>
+      <c r="J21" s="20">
+        <v>4.3214339105798801E-3</v>
       </c>
       <c r="K21" s="11">
-        <v>0.37470504553110701</v>
+        <v>0.37470504553110601</v>
       </c>
       <c r="L21" s="11">
-        <v>0.62450840921851203</v>
+        <v>0.62450840921850903</v>
       </c>
       <c r="M21" s="11">
-        <v>0.34608760631315799</v>
+        <v>0.34664571246875597</v>
       </c>
       <c r="N21" s="11">
-        <v>0.54880849344000604</v>
+        <v>0.54442911405706396</v>
       </c>
       <c r="O21" s="11">
-        <v>0.30205451867615302</v>
+        <v>0.30320382682863301</v>
       </c>
       <c r="P21" s="11">
-        <v>0.55368813688198704</v>
+        <v>0.553086173989497</v>
       </c>
       <c r="Q21" s="11">
-        <v>0.39646035938831897</v>
+        <v>0.39662050376011299</v>
       </c>
       <c r="R21" s="11">
-        <v>0.40341961180091401</v>
+        <v>0.40709589184667599</v>
       </c>
       <c r="S21" s="11">
-        <v>0.32135248604090899</v>
+        <v>0.32232812261817401</v>
       </c>
       <c r="T21" s="11">
-        <v>0.40374621594522497</v>
+        <v>0.404013443046006</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -2352,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="21">
-        <v>2.3E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="G22" s="22">
         <v>1</v>
@@ -2361,40 +2369,40 @@
         <v>1</v>
       </c>
       <c r="I22" s="13">
-        <v>8.1574160868461801E-7</v>
+        <v>6.1328965267296296E-6</v>
       </c>
       <c r="J22" s="19">
-        <v>2.4472248260538498E-6</v>
+        <v>1.10392137481133E-5</v>
       </c>
       <c r="K22" s="11">
-        <v>0.99611412607348404</v>
+        <v>0.99610992029565104</v>
       </c>
       <c r="L22" s="11">
-        <v>0.99611412607392802</v>
+        <v>0.99610992029565604</v>
       </c>
       <c r="M22" s="11">
-        <v>0.44759466139913701</v>
+        <v>0.44356858250464798</v>
       </c>
       <c r="N22" s="11">
-        <v>0.50354399407402906</v>
+        <v>0.49901465531772898</v>
       </c>
       <c r="O22" s="11">
-        <v>0.45158045646949302</v>
+        <v>0.44710124307905502</v>
       </c>
       <c r="P22" s="11">
-        <v>0.489851652839699</v>
+        <v>0.46343278758866902</v>
       </c>
       <c r="Q22" s="11">
-        <v>0.309493235630874</v>
+        <v>0.30511160463711801</v>
       </c>
       <c r="R22" s="11">
-        <v>0.3879698077589</v>
+        <v>0.38305118905004398</v>
       </c>
       <c r="S22" s="11">
-        <v>0.36882955841079901</v>
+        <v>0.36608810197261699</v>
       </c>
       <c r="T22" s="11">
-        <v>0.436605472989188</v>
+        <v>0.43415695203568799</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -2408,13 +2416,13 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="D23" s="11">
-        <v>0.51315488446579705</v>
+        <v>0.51648351648351698</v>
       </c>
       <c r="E23" s="11">
-        <v>0.76973232669869596</v>
+        <v>0.77472527472527497</v>
       </c>
       <c r="F23" s="21">
-        <v>2.3E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="G23" s="22">
         <v>1</v>
@@ -2423,40 +2431,40 @@
         <v>1</v>
       </c>
       <c r="I23" s="13">
-        <v>9.4172192441432193E-9</v>
+        <v>4.7909998092830301E-8</v>
       </c>
       <c r="J23" s="19">
-        <v>2.11887432993222E-8</v>
+        <v>1.0779749570886799E-7</v>
       </c>
       <c r="K23" s="11">
-        <v>0.99520918276598402</v>
+        <v>0.995331912534416</v>
       </c>
       <c r="L23" s="11">
-        <v>0.99520918276598602</v>
+        <v>0.99533191253442199</v>
       </c>
       <c r="M23" s="11">
-        <v>0.34833946726964099</v>
+        <v>0.35718419656690498</v>
       </c>
       <c r="N23" s="11">
-        <v>0.47060682764627598</v>
+        <v>0.45923682415744899</v>
       </c>
       <c r="O23" s="11">
-        <v>0.373980328694695</v>
+        <v>0.37572790191830202</v>
       </c>
       <c r="P23" s="11">
-        <v>0.56097049304204205</v>
+        <v>0.56359185287745195</v>
       </c>
       <c r="Q23" s="11">
-        <v>0.209680760406807</v>
+        <v>0.21797552646468099</v>
       </c>
       <c r="R23" s="11">
-        <v>0.43841778446304702</v>
+        <v>0.39140986241055598</v>
       </c>
       <c r="S23" s="11">
-        <v>0.180058894525853</v>
+        <v>0.18553125075372401</v>
       </c>
       <c r="T23" s="11">
-        <v>0.32893914076253</v>
+        <v>0.34344414362923298</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -2476,49 +2484,49 @@
         <v>1</v>
       </c>
       <c r="F24" s="21">
-        <v>4.7E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="G24" s="22">
-        <v>0.52809482001756003</v>
+        <v>0.525101763907734</v>
       </c>
       <c r="H24" s="22">
-        <v>0.70105964394803899</v>
+        <v>0.675130839309944</v>
       </c>
       <c r="I24" s="11">
-        <v>8.2622255753722201E-3</v>
+        <v>3.19615223050361E-2</v>
       </c>
       <c r="J24" s="20">
-        <v>9.2950037722937494E-3</v>
+        <v>3.5956712593165602E-2</v>
       </c>
       <c r="K24" s="11">
-        <v>0.99611412607392802</v>
+        <v>0.99610992029565504</v>
       </c>
       <c r="L24" s="11">
-        <v>0.99611412607392802</v>
+        <v>0.99610992029565604</v>
       </c>
       <c r="M24" s="11">
-        <v>0.34489943889911001</v>
+        <v>0.34052290363870902</v>
       </c>
       <c r="N24" s="11">
-        <v>0.46932032924510603</v>
+        <v>0.46367700807421403</v>
       </c>
       <c r="O24" s="11">
-        <v>0.43666182243059798</v>
+        <v>0.43421274247160202</v>
       </c>
       <c r="P24" s="11">
-        <v>0.489851652839699</v>
+        <v>0.46343278758866902</v>
       </c>
       <c r="Q24" s="11">
-        <v>0.34486205134124498</v>
+        <v>0.340489945822261</v>
       </c>
       <c r="R24" s="11">
-        <v>0.3879698077589</v>
+        <v>0.38305118905004398</v>
       </c>
       <c r="S24" s="11">
-        <v>0.436605472989188</v>
+        <v>0.43415695203568799</v>
       </c>
       <c r="T24" s="11">
-        <v>0.436605472989188</v>
+        <v>0.43415695203568799</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -2532,55 +2540,55 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="D25" s="11">
-        <v>0.51315488446579705</v>
+        <v>0.51648351648351698</v>
       </c>
       <c r="E25" s="11">
-        <v>0.76973232669869596</v>
+        <v>0.77472527472527497</v>
       </c>
       <c r="F25" s="21">
-        <v>4.7E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="G25" s="22">
-        <v>0.49756572541382699</v>
+        <v>0.49650349650349601</v>
       </c>
       <c r="H25" s="22">
-        <v>0.92293825437612298</v>
+        <v>0.89283707912820298</v>
       </c>
       <c r="I25" s="11">
-        <v>7.1342649275603397E-4</v>
+        <v>5.0918008786423902E-3</v>
       </c>
       <c r="J25" s="20">
-        <v>1.0701397391340501E-3</v>
+        <v>6.5466011296830802E-3</v>
       </c>
       <c r="K25" s="11">
-        <v>0.99520918276598502</v>
+        <v>0.99533191253442099</v>
       </c>
       <c r="L25" s="11">
-        <v>0.99520918276598602</v>
+        <v>0.99533191253442199</v>
       </c>
       <c r="M25" s="11">
-        <v>0.243601906358726</v>
+        <v>0.25216923880995001</v>
       </c>
       <c r="N25" s="11">
-        <v>0.47060682764627598</v>
+        <v>0.45923682415744899</v>
       </c>
       <c r="O25" s="11">
-        <v>0.18237628144699</v>
+        <v>0.19081380579439899</v>
       </c>
       <c r="P25" s="11">
-        <v>0.41034663325572701</v>
+        <v>0.42933106303739899</v>
       </c>
       <c r="Q25" s="11">
-        <v>0.24356543581280399</v>
+        <v>0.25213691611296002</v>
       </c>
       <c r="R25" s="11">
-        <v>0.43841778446304702</v>
+        <v>0.39140986241055598</v>
       </c>
       <c r="S25" s="11">
-        <v>0.182359520825637</v>
+        <v>0.19080230201624099</v>
       </c>
       <c r="T25" s="11">
-        <v>0.32893914076253</v>
+        <v>0.34344414362923298</v>
       </c>
     </row>
   </sheetData>

--- a/Downstream_R_Code/Extra_Analysis/Sample_Type_Full_Statistical_Analysis/Pvalues-Sample_Type.xlsx
+++ b/Downstream_R_Code/Extra_Analysis/Sample_Type_Full_Statistical_Analysis/Pvalues-Sample_Type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\jogembo\Seq\170118\Paper_Draft_PLOS_ONE_Draft24\HPV_type_paper-archived_samples\Downstream_R_Code\Extra_Analysis\Sample_Type_Full_Statistical_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwarden\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E423DA-3181-4F98-8B52-6567CCA021F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0B1A90-286D-4001-9488-97665078A1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="1125" windowWidth="27165" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="1335" windowWidth="23145" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supplemental_Table_S9" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>min5.FE.fdr</t>
   </si>
   <si>
-    <t>min15.FE.fdr</t>
-  </si>
-  <si>
     <t>limma.voom.pvalue</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>min20.FE.pvalue</t>
+  </si>
+  <si>
+    <t>min20.FE.fdr</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1071,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,7 +1100,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1120,57 +1120,57 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="C3" s="12">
         <v>-0.124</v>
@@ -1229,10 +1229,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="12">
         <v>2.5000000000000001E-2</v>
@@ -1291,10 +1291,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="12">
         <v>-0.14899999999999999</v>
@@ -1353,10 +1353,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="12">
         <v>0.20399999999999999</v>
@@ -1415,10 +1415,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="12">
         <v>0.14199999999999999</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="12">
         <v>6.2E-2</v>
@@ -1539,10 +1539,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="12">
         <v>5.5E-2</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="12">
         <v>5.5E-2</v>
@@ -1663,10 +1663,10 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="12">
         <v>3.5999999999999997E-2</v>
@@ -1725,10 +1725,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="12">
         <v>3.5999999999999997E-2</v>
@@ -1787,10 +1787,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="12">
         <v>7.2999999999999995E-2</v>
@@ -1849,10 +1849,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="12">
         <v>1.7000000000000001E-2</v>
@@ -1911,10 +1911,10 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="12">
         <v>5.6000000000000001E-2</v>
@@ -1973,10 +1973,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="25">
         <v>0.36</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="15">
         <v>0.23300000000000001</v>
@@ -2097,10 +2097,10 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="15">
         <v>0.127</v>
@@ -2159,10 +2159,10 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="12">
         <v>-6.2E-2</v>
@@ -2221,10 +2221,10 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="27">
         <v>-0.01</v>
@@ -2283,10 +2283,10 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="12">
         <v>-5.1999999999999998E-2</v>
@@ -2345,10 +2345,10 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="12">
         <v>3.5999999999999997E-2</v>
@@ -2407,10 +2407,10 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="12">
         <v>3.5999999999999997E-2</v>
@@ -2469,10 +2469,10 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="12">
         <v>3.5999999999999997E-2</v>
@@ -2531,10 +2531,10 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="C25" s="12">
         <v>3.5999999999999997E-2</v>
